--- a/docs/开场网_数据字典.xlsx
+++ b/docs/开场网_数据字典.xlsx
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>商品属性信息ID</t>
-  </si>
-  <si>
-    <t>goodId</t>
   </si>
   <si>
     <t>商品ID</t>
@@ -849,6 +846,10 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1222,19 +1223,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,7 +1641,7 @@
   <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,11 +1656,11 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1712,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>14</v>
@@ -1748,7 +1749,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -1771,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1785,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -1793,11 +1794,11 @@
       <c r="A13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
@@ -1849,7 +1850,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>14</v>
@@ -1885,7 +1886,7 @@
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -1922,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -1930,11 +1931,11 @@
       <c r="A25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
@@ -1975,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1986,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>14</v>
@@ -1994,7 +1995,7 @@
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
@@ -2008,10 +2009,10 @@
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>20</v>
@@ -2045,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2053,11 +2054,11 @@
       <c r="A36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
@@ -2112,26 +2113,26 @@
         <v>10</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>33</v>
@@ -2140,7 +2141,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2154,12 +2155,12 @@
         <v>10</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>36</v>
@@ -2168,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2182,7 +2183,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2196,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2205,11 +2206,11 @@
       <c r="A49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
@@ -2241,10 +2242,10 @@
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2264,26 +2265,26 @@
         <v>10</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>33</v>
@@ -2292,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2306,12 +2307,12 @@
         <v>10</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>36</v>
@@ -2320,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2331,10 +2332,10 @@
         <v>23</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2348,7 +2349,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2356,11 +2357,11 @@
       <c r="A62" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
+      <c r="B62" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
@@ -2406,7 +2407,7 @@
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>40</v>
@@ -2420,13 +2421,13 @@
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>14</v>
@@ -2434,13 +2435,13 @@
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>42</v>
@@ -2448,10 +2449,10 @@
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
@@ -2462,16 +2463,16 @@
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="C70" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="D70" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2479,11 +2480,11 @@
       <c r="A73" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
+      <c r="B73" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="36"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
@@ -2515,7 +2516,7 @@
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>37</v>
@@ -2571,7 +2572,7 @@
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>51</v>
@@ -2594,12 +2595,12 @@
         <v>10</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>53</v>
@@ -2630,11 +2631,11 @@
       <c r="A86" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="39"/>
+      <c r="B86" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18" t="s">
@@ -2666,24 +2667,24 @@
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>7</v>
@@ -2700,7 +2701,7 @@
         <v>57</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>14</v>
@@ -2708,16 +2709,16 @@
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="32" t="s">
-        <v>134</v>
-      </c>
       <c r="C92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2731,18 +2732,18 @@
         <v>7</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39"/>
+      <c r="B96" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="18" t="s">
@@ -2783,35 +2784,35 @@
         <v>7</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="C100" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="C101" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2819,11 +2820,11 @@
       <c r="A104" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="39"/>
+      <c r="B104" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" s="36"/>
+      <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="18" t="s">
@@ -2850,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2869,24 +2870,24 @@
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>7</v>
@@ -2900,11 +2901,11 @@
       <c r="A112" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="39"/>
+      <c r="B112" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
@@ -2936,13 +2937,13 @@
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>14</v>
@@ -2953,7 +2954,7 @@
         <v>47</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116" s="27" t="s">
         <v>10</v>
@@ -2964,42 +2965,42 @@
     </row>
     <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="121" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="38"/>
-      <c r="D121" s="39"/>
+        <v>129</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="36"/>
+      <c r="D121" s="37"/>
     </row>
     <row r="122" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="18" t="s">
@@ -3059,7 +3060,7 @@
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>64</v>
@@ -3073,16 +3074,16 @@
     </row>
     <row r="127" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="C127" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="D127" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -3090,11 +3091,11 @@
       <c r="A130" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C130" s="38"/>
-      <c r="D130" s="39"/>
+      <c r="B130" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="18" t="s">
@@ -3126,16 +3127,16 @@
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3148,11 +3149,11 @@
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="36"/>
+      <c r="B135" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
     </row>
     <row r="136" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
@@ -3187,18 +3188,18 @@
         <v>69</v>
       </c>
       <c r="B138" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>70</v>
@@ -3207,7 +3208,7 @@
         <v>10</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3220,11 +3221,11 @@
       <c r="A141" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C141" s="35"/>
-      <c r="D141" s="36"/>
+      <c r="B141" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="38"/>
+      <c r="D141" s="39"/>
     </row>
     <row r="142" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="18" t="s">
@@ -3256,16 +3257,16 @@
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E144" s="41"/>
       <c r="F144" s="41"/>
@@ -3295,12 +3296,12 @@
         <v>10</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>77</v>
@@ -3314,16 +3315,16 @@
     </row>
     <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3342,11 +3343,11 @@
       <c r="A151" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C151" s="35"/>
-      <c r="D151" s="36"/>
+      <c r="B151" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" s="38"/>
+      <c r="D151" s="39"/>
     </row>
     <row r="152" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="18" t="s">
@@ -3367,7 +3368,7 @@
         <v>5</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>7</v>
@@ -3378,100 +3379,100 @@
     </row>
     <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="C154" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3484,11 +3485,11 @@
       <c r="A162" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" s="35"/>
-      <c r="D162" s="36"/>
+      <c r="B162" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="38"/>
+      <c r="D162" s="39"/>
     </row>
     <row r="163" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="18" t="s">
@@ -3520,44 +3521,44 @@
     </row>
     <row r="165" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="C165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3568,6 +3569,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B121:D121"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B36:D36"/>
@@ -3575,17 +3587,6 @@
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="D144:F144"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/docs/开场网_数据字典.xlsx
+++ b/docs/开场网_数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="195">
   <si>
     <t>表名</t>
   </si>
@@ -373,6 +373,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>e</t>
@@ -469,6 +470,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -629,6 +631,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>um</t>
@@ -652,6 +655,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>umber</t>
@@ -666,6 +670,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -850,6 +855,18 @@
   </si>
   <si>
     <t>gid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商详情ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -868,18 +885,21 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1223,6 +1243,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,12 +1256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,7 +1661,7 @@
   <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1656,11 +1676,11 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1794,11 +1814,11 @@
       <c r="A13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
@@ -1819,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1833,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -1931,11 +1951,11 @@
       <c r="A25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
@@ -2054,11 +2074,11 @@
       <c r="A36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
@@ -2206,11 +2226,11 @@
       <c r="A49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
@@ -2227,17 +2247,17 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>66</v>
+      <c r="B51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2357,11 +2377,11 @@
       <c r="A62" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
     </row>
     <row r="63" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
@@ -2480,11 +2500,11 @@
       <c r="A73" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
     </row>
     <row r="74" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
@@ -2631,11 +2651,11 @@
       <c r="A86" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="39"/>
     </row>
     <row r="87" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18" t="s">
@@ -2739,11 +2759,11 @@
       <c r="A96" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="37"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="39"/>
     </row>
     <row r="97" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="18" t="s">
@@ -2820,11 +2840,11 @@
       <c r="A104" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="37"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="39"/>
     </row>
     <row r="105" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="18" t="s">
@@ -2901,11 +2921,11 @@
       <c r="A112" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39"/>
     </row>
     <row r="113" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
@@ -2996,11 +3016,11 @@
       <c r="A121" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="37"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="39"/>
     </row>
     <row r="122" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="18" t="s">
@@ -3091,11 +3111,11 @@
       <c r="A130" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="39"/>
     </row>
     <row r="131" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="18" t="s">
@@ -3149,11 +3169,11 @@
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="36"/>
     </row>
     <row r="136" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
@@ -3221,11 +3241,11 @@
       <c r="A141" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C141" s="38"/>
-      <c r="D141" s="39"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="36"/>
     </row>
     <row r="142" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="18" t="s">
@@ -3343,11 +3363,11 @@
       <c r="A151" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C151" s="38"/>
-      <c r="D151" s="39"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="36"/>
     </row>
     <row r="152" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="18" t="s">
@@ -3485,11 +3505,11 @@
       <c r="A162" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C162" s="38"/>
-      <c r="D162" s="39"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="36"/>
     </row>
     <row r="163" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="18" t="s">
@@ -3569,17 +3589,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B121:D121"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B36:D36"/>
@@ -3587,6 +3596,17 @@
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="D144:F144"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/docs/开场网_数据字典.xlsx
+++ b/docs/开场网_数据字典.xlsx
@@ -722,10 +722,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>attrs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>非空(如:类型id 1,2,3)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -867,6 +863,10 @@
   </si>
   <si>
     <t>加盟商名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueIds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1243,19 +1243,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1676,11 +1676,11 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1814,11 +1814,11 @@
       <c r="A13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
@@ -1839,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1853,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -1951,11 +1951,11 @@
       <c r="A25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
@@ -2074,11 +2074,11 @@
       <c r="A36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
@@ -2141,7 +2141,7 @@
         <v>103</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -2226,11 +2226,11 @@
       <c r="A49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>7</v>
@@ -2262,10 +2262,10 @@
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2293,7 +2293,7 @@
         <v>103</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
@@ -2352,7 +2352,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>97</v>
@@ -2377,11 +2377,11 @@
       <c r="A62" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
@@ -2500,11 +2500,11 @@
       <c r="A73" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
@@ -2651,11 +2651,11 @@
       <c r="A86" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="39"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18" t="s">
@@ -2721,7 +2721,7 @@
         <v>57</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>14</v>
@@ -2759,11 +2759,11 @@
       <c r="A96" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39"/>
+      <c r="B96" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="18" t="s">
@@ -2840,11 +2840,11 @@
       <c r="A104" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="39"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="18" t="s">
@@ -2921,11 +2921,11 @@
       <c r="A112" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="39"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
@@ -3016,11 +3016,11 @@
       <c r="A121" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="38"/>
-      <c r="D121" s="39"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="37"/>
     </row>
     <row r="122" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="18" t="s">
@@ -3111,11 +3111,11 @@
       <c r="A130" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="38"/>
-      <c r="D130" s="39"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="18" t="s">
@@ -3147,7 +3147,7 @@
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>67</v>
@@ -3169,11 +3169,11 @@
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="36"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
     </row>
     <row r="136" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
@@ -3219,7 +3219,7 @@
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>70</v>
@@ -3241,11 +3241,11 @@
       <c r="A141" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C141" s="35"/>
-      <c r="D141" s="36"/>
+      <c r="B141" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" s="38"/>
+      <c r="D141" s="39"/>
     </row>
     <row r="142" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="18" t="s">
@@ -3277,7 +3277,7 @@
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>72</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>157</v>
@@ -3344,7 +3344,7 @@
         <v>10</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3363,11 +3363,11 @@
       <c r="A151" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="35" t="s">
+      <c r="B151" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C151" s="35"/>
-      <c r="D151" s="36"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="39"/>
     </row>
     <row r="152" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="18" t="s">
@@ -3399,24 +3399,24 @@
     </row>
     <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="C154" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>85</v>
@@ -3427,10 +3427,10 @@
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>85</v>
@@ -3444,7 +3444,7 @@
         <v>103</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>124</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>85</v>
@@ -3469,16 +3469,16 @@
     </row>
     <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3486,13 +3486,13 @@
         <v>86</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3505,11 +3505,11 @@
       <c r="A162" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C162" s="35"/>
-      <c r="D162" s="36"/>
+      <c r="B162" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="38"/>
+      <c r="D162" s="39"/>
     </row>
     <row r="163" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="18" t="s">
@@ -3541,7 +3541,7 @@
     </row>
     <row r="165" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>80</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="166" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>82</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="167" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>83</v>
@@ -3589,6 +3589,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B121:D121"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B36:D36"/>
@@ -3596,17 +3607,6 @@
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="D144:F144"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/docs/开场网_数据字典.xlsx
+++ b/docs/开场网_数据字典.xlsx
@@ -722,6 +722,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>attrs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>非空(如:类型id 1,2,3)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -863,10 +867,6 @@
   </si>
   <si>
     <t>加盟商名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueIds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1243,6 +1243,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,12 +1256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1676,11 +1676,11 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1814,11 +1814,11 @@
       <c r="A13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
@@ -1839,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1853,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -1951,11 +1951,11 @@
       <c r="A25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
@@ -2074,11 +2074,11 @@
       <c r="A36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
@@ -2141,7 +2141,7 @@
         <v>103</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -2226,11 +2226,11 @@
       <c r="A49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="B49" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>7</v>
@@ -2262,10 +2262,10 @@
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2293,7 +2293,7 @@
         <v>103</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
@@ -2352,7 +2352,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>97</v>
@@ -2377,11 +2377,11 @@
       <c r="A62" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
     </row>
     <row r="63" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
@@ -2500,11 +2500,11 @@
       <c r="A73" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
     </row>
     <row r="74" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
@@ -2651,11 +2651,11 @@
       <c r="A86" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="39"/>
     </row>
     <row r="87" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18" t="s">
@@ -2721,7 +2721,7 @@
         <v>57</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>14</v>
@@ -2759,11 +2759,11 @@
       <c r="A96" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="37"/>
+      <c r="B96" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="38"/>
+      <c r="D96" s="39"/>
     </row>
     <row r="97" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="18" t="s">
@@ -2840,11 +2840,11 @@
       <c r="A104" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="37"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="39"/>
     </row>
     <row r="105" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="18" t="s">
@@ -2921,11 +2921,11 @@
       <c r="A112" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39"/>
     </row>
     <row r="113" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
@@ -3016,11 +3016,11 @@
       <c r="A121" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="37"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="39"/>
     </row>
     <row r="122" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="18" t="s">
@@ -3111,11 +3111,11 @@
       <c r="A130" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="39"/>
     </row>
     <row r="131" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="18" t="s">
@@ -3147,7 +3147,7 @@
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>67</v>
@@ -3169,11 +3169,11 @@
       <c r="A135" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="36"/>
     </row>
     <row r="136" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
@@ -3219,7 +3219,7 @@
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>70</v>
@@ -3241,11 +3241,11 @@
       <c r="A141" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C141" s="38"/>
-      <c r="D141" s="39"/>
+      <c r="B141" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="35"/>
+      <c r="D141" s="36"/>
     </row>
     <row r="142" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="18" t="s">
@@ -3277,7 +3277,7 @@
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>72</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>157</v>
@@ -3344,7 +3344,7 @@
         <v>10</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3363,11 +3363,11 @@
       <c r="A151" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C151" s="38"/>
-      <c r="D151" s="39"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="36"/>
     </row>
     <row r="152" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="18" t="s">
@@ -3399,24 +3399,24 @@
     </row>
     <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>85</v>
@@ -3427,10 +3427,10 @@
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>85</v>
@@ -3444,7 +3444,7 @@
         <v>103</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>124</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>85</v>
@@ -3469,16 +3469,16 @@
     </row>
     <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3486,13 +3486,13 @@
         <v>86</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3505,11 +3505,11 @@
       <c r="A162" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C162" s="38"/>
-      <c r="D162" s="39"/>
+      <c r="B162" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="35"/>
+      <c r="D162" s="36"/>
     </row>
     <row r="163" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="18" t="s">
@@ -3541,7 +3541,7 @@
     </row>
     <row r="165" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>80</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="166" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>82</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="167" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>83</v>
@@ -3589,17 +3589,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B121:D121"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B36:D36"/>
@@ -3607,6 +3596,17 @@
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="D144:F144"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/docs/开场网_数据字典.xlsx
+++ b/docs/开场网_数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="241">
   <si>
     <t>表名</t>
   </si>
@@ -136,15 +136,9 @@
     <t>订单编号</t>
   </si>
   <si>
-    <t>加盟商ID</t>
-  </si>
-  <si>
     <t>订单状态</t>
   </si>
   <si>
-    <t>默认：0（未审核）；1：租赁中；2：已成交</t>
-  </si>
-  <si>
     <t>发票ID</t>
   </si>
   <si>
@@ -187,15 +181,9 @@
     <t>content</t>
   </si>
   <si>
-    <t>评论内容</t>
-  </si>
-  <si>
     <t>购物车ID</t>
   </si>
   <si>
-    <t>收藏夹ID</t>
-  </si>
-  <si>
     <t>轮播图ID</t>
   </si>
   <si>
@@ -215,60 +203,6 @@
   </si>
   <si>
     <t>主键、自增、无符号、非空</t>
-  </si>
-  <si>
-    <t>属性值</t>
-  </si>
-  <si>
-    <t>属性ID</t>
-  </si>
-  <si>
-    <t>attrName</t>
-  </si>
-  <si>
-    <t>属性值ID</t>
-  </si>
-  <si>
-    <t>商品分类ID</t>
-  </si>
-  <si>
-    <t>分类名称</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>父分类ID</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>路径</t>
-  </si>
-  <si>
-    <t>分类状态</t>
-  </si>
-  <si>
-    <t>默认为1，1为开启、0为禁用</t>
-  </si>
-  <si>
-    <t>商品属性信息ID</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>无符号、非空</t>
-  </si>
-  <si>
-    <t>商品属性ID</t>
-  </si>
-  <si>
-    <t>商品属性值ID</t>
-  </si>
-  <si>
-    <t>商品表(goods)</t>
   </si>
   <si>
     <t>varchar(255)</t>
@@ -408,18 +342,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>订单开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ended_at</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -432,10 +354,6 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认:0(表示未结束)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -486,27 +404,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>uid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>gid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>主键、自增、无符号、非空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>评论表 (comments)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏夹表 (favorite)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -525,33 +431,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>商品I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空(用 uid 等于某值去查多条数据来实现购物车里多件商品)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>非空(用 uid 等于某值来实现同一用户多条收藏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -584,14 +467,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -609,18 +484,6 @@
   </si>
   <si>
     <t>链接地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品属性值表 (goods_values)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品属性表 (goods_attrs)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空(如:0 1 50人 5000元 五星级)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -663,8 +526,112 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>oid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地出租凭证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认:1 上架 (0 下架)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商详情表 (shopdetails)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业用户表 (userdetails)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车表 (shopcart)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商详情ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟商名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>si</t>
+      <t>pi</t>
     </r>
     <r>
       <rPr>
@@ -678,11 +645,325 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>gid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>oid</t>
+    <t>场地ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会场I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配套服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:未接单 2:未付款 3:交易中 4:交易完成 5:交易取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pdat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ed_at</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fids</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 场地ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:开启 0:禁用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>longText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会场ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会场I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏夹表 (collection)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地表(places)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidencePic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1酒店、2会议中心、3体育馆、4展览馆、5酒吧/餐厅/会所、6艺术中心/剧院、7咖啡厅/茶室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotelStar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店星级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 三星以下 3三星级 4星级 5星级 6星级 7星级</t>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 有 0无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大会场面积</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxPeople</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeService</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1暖气  2地毯  3音响  4无线话筒  5固定投影  6固定幕布  7移动投影  8电视屏  9白板  10移动舞台  11茶/水  12纸笔  13桌卡  14指引牌  15签到台 16鲜花 17茶歇  18有线话筒 19台式话筒 20小蜜蜂 21移动幕布 22LED屏 23移动讲台 24宽带接口  25代客泊车  26停车场</t>
+  </si>
+  <si>
+    <t>supportService</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1茶歇 2客房 3AV设备</t>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -690,183 +971,147 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>属性名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空(如:上下架 容纳人数 单价 星级)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空(如:属性值id 1,2,3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrIds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空、默认为0 (如 0,1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空(如:酒店 会议中心 体育馆 展览馆 子类:客房 餐厅 休息室 茶歇 AV设备 )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所含属性IDS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空(如:类型id 1,2,3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类表(goods_types)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品属性信息表(goods_attrinfo)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodAttrValId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属分类ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号、非空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地出租凭证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>license</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodAttrId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认:1 上架 (0 下架)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟商ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟商详情表 (shopdetails)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟商ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业用户表 (userdetails)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>longText</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车表 (shopcart)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟商详情ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟商ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加盟商名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueIds</t>
+    <t>默认:default.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>updown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:上架 0:下架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isads</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:广告 0:非广告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多容纳人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配套服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为广告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会场表(meetplaces)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会场ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会场名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deskPeople</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课桌式容纳人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinnerPeople</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宴会式容纳人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码表 (code)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会场ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认:default.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房(1单人间、2标准间（双床）、3双人间、4套间客房、5公寓式客房、6总统套房、7特色客房) 茶歇(1中式、2西式) AV设备(1音响设备、2麦克风、3投影仪)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配套服务表(facilities)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>supportType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1118,15 +1363,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1139,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,6 +1479,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,16 +1494,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,7 +1526,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2_3" displayName="表2_3" ref="A26:D28" totalsRowShown="0" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表2_34568910111213" displayName="表2_34568910111213" ref="A198:D199" totalsRowShown="0" headerRowCellStyle="好">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1329,7 +1562,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A74:D76" totalsRowShown="0" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表2_3456" displayName="表2_3456" ref="A78:D80" totalsRowShown="0" headerRowCellStyle="好">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1341,7 +1574,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表2_34568" displayName="表2_34568" ref="A87:D89" totalsRowShown="0" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表2_34568" displayName="表2_34568" ref="A91:D93" totalsRowShown="0" headerRowCellStyle="好">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1353,7 +1586,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表2_345689" displayName="表2_345689" ref="A97:D99" totalsRowShown="0" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表2_345689" displayName="表2_345689" ref="A103:D105" totalsRowShown="0" headerRowCellStyle="好">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1365,7 +1598,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表2_34568910" displayName="表2_34568910" ref="A105:D107" totalsRowShown="0" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A116:D117" totalsRowShown="0" headerRowCellStyle="好">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1377,7 +1610,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表2_3456891011" displayName="表2_3456891011" ref="A113:D114" totalsRowShown="0" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A125:D127" totalsRowShown="0" headerRowCellStyle="好">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1389,7 +1622,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表2_345689101112" displayName="表2_345689101112" ref="A122:D124" totalsRowShown="0" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2_3" displayName="表2_3" ref="A26:D28" totalsRowShown="0" headerRowCellStyle="好">
   <tableColumns count="4">
     <tableColumn id="1" name="字段名"/>
     <tableColumn id="2" name="说明"/>
@@ -1658,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1676,11 +1909,11 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1708,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1733,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>14</v>
@@ -1769,7 +2002,7 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -1792,7 +2025,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1806,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -1814,11 +2047,11 @@
       <c r="A13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
@@ -1839,13 +2072,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1853,7 +2086,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -1870,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>14</v>
@@ -1906,7 +2139,7 @@
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -1943,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -1951,11 +2184,11 @@
       <c r="A25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
@@ -1982,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1996,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2007,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>14</v>
@@ -2015,7 +2248,7 @@
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
@@ -2029,10 +2262,10 @@
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>20</v>
@@ -2066,7 +2299,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2074,11 +2307,11 @@
       <c r="A36" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
@@ -2105,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2133,26 +2366,26 @@
         <v>10</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>33</v>
@@ -2161,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2175,12 +2408,12 @@
         <v>10</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>36</v>
@@ -2189,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2203,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2217,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2226,11 +2459,11 @@
       <c r="A49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="B49" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
@@ -2251,21 +2484,21 @@
         <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2285,26 +2518,26 @@
         <v>10</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="29" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>33</v>
@@ -2313,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2327,12 +2560,12 @@
         <v>10</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>36</v>
@@ -2341,7 +2574,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2352,10 +2585,10 @@
         <v>23</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2369,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2377,11 +2610,11 @@
       <c r="A62" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
     </row>
     <row r="63" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
@@ -2408,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2426,11 +2659,11 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="30" t="s">
-        <v>146</v>
+      <c r="A66" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>7</v>
@@ -2440,162 +2673,158 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>111</v>
+      <c r="A67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="30" t="s">
-        <v>88</v>
+      <c r="A68" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
+    </row>
+    <row r="78" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37"/>
-    </row>
-    <row r="74" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>14</v>
+      <c r="C79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="29" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2605,28 +2834,28 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>52</v>
+      <c r="A81" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>14</v>
@@ -2634,979 +2863,1396 @@
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="21" t="s">
+    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="37"/>
-    </row>
-    <row r="87" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="18" t="s">
+      <c r="B90" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
+    </row>
+    <row r="91" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C91" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D91" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
+    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="39"/>
+    </row>
+    <row r="103" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="C104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" s="25"/>
+    </row>
+    <row r="114" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="38"/>
+      <c r="D115" s="39"/>
+    </row>
+    <row r="116" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="38"/>
+      <c r="D124" s="39"/>
+    </row>
+    <row r="125" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C127" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B92" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="21" t="s">
+    <row r="128" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="37"/>
-    </row>
-    <row r="97" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="18" t="s">
+      <c r="B133" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" s="38"/>
+      <c r="D133" s="39"/>
+    </row>
+    <row r="134" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B134" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C134" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D134" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+    <row r="135" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="37"/>
-    </row>
-    <row r="105" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
-    </row>
-    <row r="113" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B116" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B118" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="37"/>
-    </row>
-    <row r="122" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="B135" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
-    </row>
-    <row r="131" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="17"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-    </row>
-    <row r="135" spans="1:6" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
-    </row>
-    <row r="136" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="14" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="11" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D139" s="16"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="17"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
     </row>
-    <row r="141" spans="1:6" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="33" t="s">
+    <row r="141" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+    </row>
+    <row r="142" spans="1:4" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C141" s="38"/>
-      <c r="D141" s="39"/>
-    </row>
-    <row r="142" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="18" t="s">
+      <c r="B142" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="35"/>
+      <c r="D142" s="36"/>
+    </row>
+    <row r="143" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B143" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C143" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D142" s="20" t="s">
+      <c r="D143" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="5" t="s">
+    <row r="144" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D144" s="40" t="s">
+      <c r="B144" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="34"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+    </row>
+    <row r="165" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="17"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+    </row>
+    <row r="166" spans="1:4" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C166" s="35"/>
+      <c r="D166" s="36"/>
+    </row>
+    <row r="167" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="183" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="1:4" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C184" s="35"/>
+      <c r="D184" s="36"/>
+    </row>
+    <row r="185" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E144" s="41"/>
-      <c r="F144" s="41"/>
-    </row>
-    <row r="145" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="7" t="s">
+      <c r="B187" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="196" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B197" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C197" s="38"/>
+      <c r="D197" s="39"/>
+    </row>
+    <row r="198" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-    </row>
-    <row r="150" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-    </row>
-    <row r="151" spans="1:4" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C151" s="38"/>
-      <c r="D151" s="39"/>
-    </row>
-    <row r="152" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-    </row>
-    <row r="162" spans="1:4" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C162" s="38"/>
-      <c r="D162" s="39"/>
-    </row>
-    <row r="163" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B163" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B121:D121"/>
+  <mergeCells count="16">
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B184:D184"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B77:D77"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B133:D133"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
